--- a/biology/Botanique/Jardin_de_la_Rue_du_Chalet/Jardin_de_la_Rue_du_Chalet.xlsx
+++ b/biology/Botanique/Jardin_de_la_Rue_du_Chalet/Jardin_de_la_Rue_du_Chalet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin de la Rue du Chalet est un jardin public du 10e arrondissement de Paris.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le site est accessible par la rue du Chalet, à proximité de la place Sainte-Marthe.
 Il est desservi par la ligne 2 à la station Belleville.
@@ -544,9 +558,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce jardin de quartier porte le nom de la rue du Chalet, elle-même probablement dénommée en raison de la présence d'une ancienne maison du voisinage, bâtie en forme de chalet[1]. Un petit abri de jardin, en forme de chalet, existe aujourd'hui dans le square, rappelant cette dénomination.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce jardin de quartier porte le nom de la rue du Chalet, elle-même probablement dénommée en raison de la présence d'une ancienne maison du voisinage, bâtie en forme de chalet. Un petit abri de jardin, en forme de chalet, existe aujourd'hui dans le square, rappelant cette dénomination.
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin est composé de deux pelouses, d’une aire de jeux et d’un potager associatif. Il est planté de pommiers, et la Mairie de Paris évoque une palette végétale s'inspirant des jardins de curé : plantes grimpantes, plantes condimentaires (sauge) et plantes ornementales (roses trémières, clématites et coquelourdes) s'y côtoient[2]. 
-L'un des murs d'immeubles entourant le jardin est orné par l'œuvre « M. Chat » de l'artiste Thoma Vuille. Depuis 2014, une œuvre contemporaine des artistes Jean-Baptiste Naudy et Ferenc Gróf, constituée de deux blocs de granit symbolisant des astéroïdes, est également installée dans le jardin, rendant hommage à un couple de résistants morts en déportation, Jean et Marie Moinon, habitants du quartier, et dont le nom est porté par la rue Jean-et-Marie-Moinon[2],[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin est composé de deux pelouses, d’une aire de jeux et d’un potager associatif. Il est planté de pommiers, et la Mairie de Paris évoque une palette végétale s'inspirant des jardins de curé : plantes grimpantes, plantes condimentaires (sauge) et plantes ornementales (roses trémières, clématites et coquelourdes) s'y côtoient. 
+L'un des murs d'immeubles entourant le jardin est orné par l'œuvre « M. Chat » de l'artiste Thoma Vuille. Depuis 2014, une œuvre contemporaine des artistes Jean-Baptiste Naudy et Ferenc Gróf, constituée de deux blocs de granit symbolisant des astéroïdes, est également installée dans le jardin, rendant hommage à un couple de résistants morts en déportation, Jean et Marie Moinon, habitants du quartier, et dont le nom est porté par la rue Jean-et-Marie-Moinon,.
 </t>
         </is>
       </c>
